--- a/db/uploads/vote_power_50.xlsx
+++ b/db/uploads/vote_power_50.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ansellgabrieldelayre/Sites/GA_system/db/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5038C727-76F8-7545-96F5-B6D2172C767F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BD0E46-1360-5E48-BF69-71C3A08FDCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{3734D224-293F-D340-8627-99743C35D12C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1772,7 +1772,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1784,6 +1787,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1809,15 +1819,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{000DF3DC-F8A2-3D49-94A6-D5B4D2D0EE92}"/>
   </cellStyles>
@@ -2131,15 +2144,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D13A464-24E4-9849-802D-26C8A605ECCE}">
-  <dimension ref="A1:E575"/>
+  <dimension ref="A1:E576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A506" workbookViewId="0">
-      <selection activeCell="A507" sqref="A507"/>
+    <sheetView tabSelected="1" topLeftCell="A536" workbookViewId="0">
+      <selection activeCell="B576" sqref="B576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="140.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -8464,6 +8478,12 @@
         <v>566</v>
       </c>
     </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B576" s="2">
+        <f>SUM(B2:B574)</f>
+        <v>1358826900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/uploads/vote_power_50.xlsx
+++ b/db/uploads/vote_power_50.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ansellgabrieldelayre/Sites/GA_system/db/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BD0E46-1360-5E48-BF69-71C3A08FDCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AC225E-EEE6-4E42-A18E-2D1416C4C39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{3734D224-293F-D340-8627-99743C35D12C}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{3734D224-293F-D340-8627-99743C35D12C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="578">
   <si>
     <t>Cooperative</t>
   </si>
@@ -1766,6 +1766,9 @@
   </si>
   <si>
     <t>Cooperative Union of Baguio City and Luzon (CUBCL)</t>
+  </si>
+  <si>
+    <t>New Generation Business Multipurpose Cooperative (Formerly New Global Biz MPC)</t>
   </si>
 </sst>
 </file>
@@ -1824,10 +1827,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2144,10 +2148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D13A464-24E4-9849-802D-26C8A605ECCE}">
-  <dimension ref="A1:E576"/>
+  <dimension ref="A1:C577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A536" workbookViewId="0">
-      <selection activeCell="B576" sqref="B576"/>
+    <sheetView tabSelected="1" topLeftCell="A538" workbookViewId="0">
+      <selection activeCell="C578" sqref="C578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2172,10 +2176,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>497379000</v>
+        <v>864212500</v>
       </c>
       <c r="C2">
-        <v>4973790</v>
+        <v>8642125</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2183,10 +2187,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>153075200</v>
+        <v>497379000</v>
       </c>
       <c r="C3">
-        <v>1530752</v>
+        <v>4973790</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2194,10 +2198,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>100100000</v>
+        <v>153075200</v>
       </c>
       <c r="C4">
-        <v>1001000</v>
+        <v>1530752</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2205,10 +2209,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>45365500</v>
+        <v>100100000</v>
       </c>
       <c r="C5">
-        <v>453655</v>
+        <v>1001000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2216,10 +2220,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>43968100</v>
+        <v>45365500</v>
       </c>
       <c r="C6">
-        <v>439681</v>
+        <v>453655</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2227,10 +2231,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>38564000</v>
+        <v>43968100</v>
       </c>
       <c r="C7">
-        <v>385640</v>
+        <v>439681</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2238,10 +2242,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>29728700</v>
+        <v>38564000</v>
       </c>
       <c r="C8">
-        <v>297287</v>
+        <v>385640</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2249,10 +2253,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>27178900</v>
+        <v>29728700</v>
       </c>
       <c r="C9">
-        <v>271789</v>
+        <v>297287</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2260,10 +2264,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>20000000</v>
+        <v>27178900</v>
       </c>
       <c r="C10">
-        <v>200000</v>
+        <v>271789</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2271,10 +2275,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>17153600</v>
+        <v>20000000</v>
       </c>
       <c r="C11">
-        <v>171536</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2282,10 +2286,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>15337500</v>
+        <v>17153600</v>
       </c>
       <c r="C12">
-        <v>153375</v>
+        <v>171536</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2293,10 +2297,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>13765600</v>
+        <v>15337500</v>
       </c>
       <c r="C13">
-        <v>137656</v>
+        <v>153375</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2304,10 +2308,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>12486000</v>
+        <v>13765600</v>
       </c>
       <c r="C14">
-        <v>124860</v>
+        <v>137656</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -2315,10 +2319,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>10569500</v>
+        <v>12486000</v>
       </c>
       <c r="C15">
-        <v>105695</v>
+        <v>124860</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2326,10 +2330,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>10336900</v>
+        <v>10569500</v>
       </c>
       <c r="C16">
-        <v>103369</v>
+        <v>105695</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2337,10 +2341,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>10000300</v>
+        <v>10336900</v>
       </c>
       <c r="C17">
-        <v>100003</v>
+        <v>103369</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2348,10 +2352,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>10000000</v>
+        <v>10000300</v>
       </c>
       <c r="C18">
-        <v>100000</v>
+        <v>100003</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2359,10 +2363,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>8317300</v>
+        <v>10000000</v>
       </c>
       <c r="C19">
-        <v>83173</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2370,10 +2374,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>6600000</v>
+        <v>8317300</v>
       </c>
       <c r="C20">
-        <v>66000</v>
+        <v>83173</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2381,10 +2385,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>6518400</v>
+        <v>6600000</v>
       </c>
       <c r="C21">
-        <v>65184</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2392,10 +2396,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>6156200</v>
+        <v>6518400</v>
       </c>
       <c r="C22">
-        <v>61562</v>
+        <v>65184</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2403,10 +2407,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>6087100</v>
+        <v>6156200</v>
       </c>
       <c r="C23">
-        <v>60871</v>
+        <v>61562</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2414,10 +2418,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>6077100</v>
+        <v>6087100</v>
       </c>
       <c r="C24">
-        <v>60771</v>
+        <v>60871</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2425,10 +2429,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>4878900</v>
+        <v>6077100</v>
       </c>
       <c r="C25">
-        <v>48789</v>
+        <v>60771</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2436,10 +2440,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>4634000</v>
+        <v>4878900</v>
       </c>
       <c r="C26">
-        <v>46340</v>
+        <v>48789</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -2447,10 +2451,10 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>4458800</v>
+        <v>4634000</v>
       </c>
       <c r="C27">
-        <v>44588</v>
+        <v>46340</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2458,10 +2462,10 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>4314600</v>
+        <v>4458800</v>
       </c>
       <c r="C28">
-        <v>43146</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2469,10 +2473,10 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>3808700</v>
+        <v>4314600</v>
       </c>
       <c r="C29">
-        <v>38087</v>
+        <v>43146</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2480,10 +2484,10 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>3682400</v>
+        <v>3808700</v>
       </c>
       <c r="C30">
-        <v>36824</v>
+        <v>38087</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2491,10 +2495,10 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>3188700</v>
+        <v>3682400</v>
       </c>
       <c r="C31">
-        <v>31887</v>
+        <v>36824</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2513,10 +2517,10 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>3103500</v>
+        <v>3188700</v>
       </c>
       <c r="C33">
-        <v>31035</v>
+        <v>31887</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2524,10 +2528,10 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>3000000</v>
+        <v>3103500</v>
       </c>
       <c r="C34">
-        <v>30000</v>
+        <v>31035</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2546,10 +2550,10 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>2866700</v>
+        <v>3000000</v>
       </c>
       <c r="C36">
-        <v>28667</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2557,10 +2561,10 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>2777800</v>
+        <v>2866700</v>
       </c>
       <c r="C37">
-        <v>27778</v>
+        <v>28667</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -2568,10 +2572,10 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>2683200</v>
+        <v>2777800</v>
       </c>
       <c r="C38">
-        <v>26832</v>
+        <v>27778</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2579,10 +2583,10 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>2591900</v>
+        <v>2683200</v>
       </c>
       <c r="C39">
-        <v>25919</v>
+        <v>26832</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2590,10 +2594,10 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>2468000</v>
+        <v>2591900</v>
       </c>
       <c r="C40">
-        <v>24680</v>
+        <v>25919</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -2601,10 +2605,10 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>2301300</v>
+        <v>2468000</v>
       </c>
       <c r="C41">
-        <v>23013</v>
+        <v>24680</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -2612,10 +2616,10 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>2217900</v>
+        <v>2301300</v>
       </c>
       <c r="C42">
-        <v>22179</v>
+        <v>23013</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -2623,10 +2627,10 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>2196300</v>
+        <v>2217900</v>
       </c>
       <c r="C43">
-        <v>21963</v>
+        <v>22179</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -2634,10 +2638,10 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>2180500</v>
+        <v>2196300</v>
       </c>
       <c r="C44">
-        <v>21805</v>
+        <v>21963</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -2645,10 +2649,10 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>2160100</v>
+        <v>2180500</v>
       </c>
       <c r="C45">
-        <v>21601</v>
+        <v>21805</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -2656,10 +2660,10 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>2142100</v>
+        <v>2160100</v>
       </c>
       <c r="C46">
-        <v>21421</v>
+        <v>21601</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -2667,10 +2671,10 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>2115200</v>
+        <v>2142100</v>
       </c>
       <c r="C47">
-        <v>21152</v>
+        <v>21421</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -2678,10 +2682,10 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>2013200</v>
+        <v>2115200</v>
       </c>
       <c r="C48">
-        <v>20132</v>
+        <v>21152</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -2689,10 +2693,10 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>2000000</v>
+        <v>2013200</v>
       </c>
       <c r="C49">
-        <v>20000</v>
+        <v>20132</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -2711,10 +2715,10 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>1914600</v>
+        <v>2000000</v>
       </c>
       <c r="C51">
-        <v>19146</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -2722,10 +2726,10 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>1779600</v>
+        <v>1914600</v>
       </c>
       <c r="C52">
-        <v>17796</v>
+        <v>19146</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -2733,10 +2737,10 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>1777300</v>
+        <v>1779600</v>
       </c>
       <c r="C53">
-        <v>17773</v>
+        <v>17796</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -2744,10 +2748,10 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>1770100</v>
+        <v>1777300</v>
       </c>
       <c r="C54">
-        <v>17701</v>
+        <v>17773</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -2755,10 +2759,10 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>1769700</v>
+        <v>1770100</v>
       </c>
       <c r="C55">
-        <v>17697</v>
+        <v>17701</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -2766,10 +2770,10 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>1759700</v>
+        <v>1769700</v>
       </c>
       <c r="C56">
-        <v>17597</v>
+        <v>17697</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -2777,10 +2781,10 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <v>1651200</v>
+        <v>1759700</v>
       </c>
       <c r="C57">
-        <v>16512</v>
+        <v>17597</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -2788,10 +2792,10 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>1597600</v>
+        <v>1651200</v>
       </c>
       <c r="C58">
-        <v>15976</v>
+        <v>16512</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -2799,10 +2803,10 @@
         <v>60</v>
       </c>
       <c r="B59">
-        <v>1573400</v>
+        <v>1597600</v>
       </c>
       <c r="C59">
-        <v>15734</v>
+        <v>15976</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -2810,10 +2814,10 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>1540400</v>
+        <v>1573400</v>
       </c>
       <c r="C60">
-        <v>15404</v>
+        <v>15734</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -2821,10 +2825,10 @@
         <v>62</v>
       </c>
       <c r="B61">
-        <v>1500000</v>
+        <v>1540400</v>
       </c>
       <c r="C61">
-        <v>15000</v>
+        <v>15404</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -2832,10 +2836,10 @@
         <v>63</v>
       </c>
       <c r="B62">
-        <v>1499900</v>
+        <v>1500000</v>
       </c>
       <c r="C62">
-        <v>14999</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -2843,10 +2847,10 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>1492300</v>
+        <v>1499900</v>
       </c>
       <c r="C63">
-        <v>14923</v>
+        <v>14999</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -2854,10 +2858,10 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>1470000</v>
+        <v>1492300</v>
       </c>
       <c r="C64">
-        <v>14700</v>
+        <v>14923</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -2865,10 +2869,10 @@
         <v>66</v>
       </c>
       <c r="B65">
-        <v>1455100</v>
+        <v>1470000</v>
       </c>
       <c r="C65">
-        <v>14551</v>
+        <v>14700</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -2876,10 +2880,10 @@
         <v>67</v>
       </c>
       <c r="B66">
-        <v>1446200</v>
+        <v>1455100</v>
       </c>
       <c r="C66">
-        <v>14462</v>
+        <v>14551</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -2887,10 +2891,10 @@
         <v>68</v>
       </c>
       <c r="B67">
-        <v>1440500</v>
+        <v>1446200</v>
       </c>
       <c r="C67">
-        <v>14405</v>
+        <v>14462</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -2898,10 +2902,10 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>1411500</v>
+        <v>1440500</v>
       </c>
       <c r="C68">
-        <v>14115</v>
+        <v>14405</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -2909,10 +2913,10 @@
         <v>70</v>
       </c>
       <c r="B69">
-        <v>1400000</v>
+        <v>1411500</v>
       </c>
       <c r="C69">
-        <v>14000</v>
+        <v>14115</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -2920,10 +2924,10 @@
         <v>71</v>
       </c>
       <c r="B70">
-        <v>1399900</v>
+        <v>1400000</v>
       </c>
       <c r="C70">
-        <v>13999</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -2931,10 +2935,10 @@
         <v>72</v>
       </c>
       <c r="B71">
-        <v>1382500</v>
+        <v>1399900</v>
       </c>
       <c r="C71">
-        <v>13825</v>
+        <v>13999</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -2942,10 +2946,10 @@
         <v>73</v>
       </c>
       <c r="B72">
-        <v>1369600</v>
+        <v>1382500</v>
       </c>
       <c r="C72">
-        <v>13696</v>
+        <v>13825</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -2953,10 +2957,10 @@
         <v>74</v>
       </c>
       <c r="B73">
-        <v>1357300</v>
+        <v>1369600</v>
       </c>
       <c r="C73">
-        <v>13573</v>
+        <v>13696</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -2964,10 +2968,10 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>1345500</v>
+        <v>1357300</v>
       </c>
       <c r="C74">
-        <v>13455</v>
+        <v>13573</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -2975,10 +2979,10 @@
         <v>76</v>
       </c>
       <c r="B75">
-        <v>1302400</v>
+        <v>1345500</v>
       </c>
       <c r="C75">
-        <v>13024</v>
+        <v>13455</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -2986,10 +2990,10 @@
         <v>77</v>
       </c>
       <c r="B76">
-        <v>1290000</v>
+        <v>1302400</v>
       </c>
       <c r="C76">
-        <v>12900</v>
+        <v>13024</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -2997,10 +3001,10 @@
         <v>78</v>
       </c>
       <c r="B77">
-        <v>1215200</v>
+        <v>1290000</v>
       </c>
       <c r="C77">
-        <v>12152</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -3008,10 +3012,10 @@
         <v>79</v>
       </c>
       <c r="B78">
-        <v>1188800</v>
+        <v>1215200</v>
       </c>
       <c r="C78">
-        <v>11888</v>
+        <v>12152</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -3019,10 +3023,10 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>1186900</v>
+        <v>1188800</v>
       </c>
       <c r="C79">
-        <v>11869</v>
+        <v>11888</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -3030,115 +3034,112 @@
         <v>81</v>
       </c>
       <c r="B80">
-        <v>1168200</v>
+        <v>1186900</v>
       </c>
       <c r="C80">
-        <v>11682</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11869</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>82</v>
       </c>
       <c r="B81">
-        <v>1148700</v>
+        <v>1168200</v>
       </c>
       <c r="C81">
-        <v>11487</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11682</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>83</v>
       </c>
       <c r="B82">
-        <v>1146300</v>
+        <v>1148700</v>
       </c>
       <c r="C82">
-        <v>11463</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11487</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>84</v>
       </c>
       <c r="B83">
-        <v>1124700</v>
+        <v>1146300</v>
       </c>
       <c r="C83">
-        <v>11247</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11463</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>85</v>
       </c>
       <c r="B84">
-        <v>1120500</v>
+        <v>1124700</v>
       </c>
       <c r="C84">
-        <v>11205</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11247</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>86</v>
       </c>
       <c r="B85">
-        <v>1116800</v>
+        <v>1120500</v>
       </c>
       <c r="C85">
-        <v>11168</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>87</v>
       </c>
       <c r="B86">
-        <v>1112900</v>
+        <v>1116800</v>
       </c>
       <c r="C86">
-        <v>11129</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11168</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>567</v>
       </c>
       <c r="B87">
-        <v>1108100</v>
+        <v>1112900</v>
       </c>
       <c r="C87">
-        <v>11081</v>
-      </c>
-      <c r="E87" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>88</v>
       </c>
       <c r="B88">
-        <v>1100200</v>
+        <v>1108100</v>
       </c>
       <c r="C88">
-        <v>11002</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11081</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>89</v>
       </c>
       <c r="B89">
-        <v>1100000</v>
+        <v>1100200</v>
       </c>
       <c r="C89">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -3149,70 +3150,70 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>91</v>
       </c>
       <c r="B91">
-        <v>1085600</v>
+        <v>1100000</v>
       </c>
       <c r="C91">
-        <v>10856</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>92</v>
       </c>
       <c r="B92">
-        <v>1075000</v>
+        <v>1085600</v>
       </c>
       <c r="C92">
-        <v>10750</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10856</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>93</v>
       </c>
       <c r="B93">
-        <v>1069200</v>
+        <v>1075000</v>
       </c>
       <c r="C93">
-        <v>10692</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10750</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>568</v>
       </c>
       <c r="B94">
-        <v>1050400</v>
+        <v>1069200</v>
       </c>
       <c r="C94">
-        <v>10504</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10692</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1048700</v>
+        <v>1050400</v>
       </c>
       <c r="C95">
-        <v>10487</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10504</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
       <c r="B96">
-        <v>1048600</v>
+        <v>1048700</v>
       </c>
       <c r="C96">
-        <v>10486</v>
+        <v>10487</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -3220,10 +3221,10 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>1044100</v>
+        <v>1048600</v>
       </c>
       <c r="C97">
-        <v>10441</v>
+        <v>10486</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -3231,10 +3232,10 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>1029500</v>
+        <v>1044100</v>
       </c>
       <c r="C98">
-        <v>10295</v>
+        <v>10441</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -3242,10 +3243,10 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1016100</v>
+        <v>1029500</v>
       </c>
       <c r="C99">
-        <v>10161</v>
+        <v>10295</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -3253,10 +3254,10 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1013700</v>
+        <v>1016100</v>
       </c>
       <c r="C100">
-        <v>10137</v>
+        <v>10161</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -3264,10 +3265,10 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1000000</v>
+        <v>1013700</v>
       </c>
       <c r="C101">
-        <v>10000</v>
+        <v>10137</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -3374,10 +3375,10 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>999900</v>
+        <v>1000000</v>
       </c>
       <c r="C111">
-        <v>9999</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -3396,10 +3397,10 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>957100</v>
+        <v>999900</v>
       </c>
       <c r="C113">
-        <v>9571</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -3407,10 +3408,10 @@
         <v>573</v>
       </c>
       <c r="B114">
-        <v>950000</v>
+        <v>957100</v>
       </c>
       <c r="C114">
-        <v>9500</v>
+        <v>9571</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -3418,10 +3419,10 @@
         <v>112</v>
       </c>
       <c r="B115">
-        <v>949200</v>
+        <v>950000</v>
       </c>
       <c r="C115">
-        <v>9492</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -3429,10 +3430,10 @@
         <v>113</v>
       </c>
       <c r="B116">
-        <v>932300</v>
+        <v>949200</v>
       </c>
       <c r="C116">
-        <v>9323</v>
+        <v>9492</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -3440,10 +3441,10 @@
         <v>114</v>
       </c>
       <c r="B117">
-        <v>914600</v>
+        <v>932300</v>
       </c>
       <c r="C117">
-        <v>9146</v>
+        <v>9323</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -3451,10 +3452,10 @@
         <v>115</v>
       </c>
       <c r="B118">
-        <v>896600</v>
+        <v>914600</v>
       </c>
       <c r="C118">
-        <v>8966</v>
+        <v>9146</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -3462,10 +3463,10 @@
         <v>116</v>
       </c>
       <c r="B119">
-        <v>890500</v>
+        <v>896600</v>
       </c>
       <c r="C119">
-        <v>8905</v>
+        <v>8966</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -3473,10 +3474,10 @@
         <v>117</v>
       </c>
       <c r="B120">
-        <v>863200</v>
+        <v>890500</v>
       </c>
       <c r="C120">
-        <v>8632</v>
+        <v>8905</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -3484,10 +3485,10 @@
         <v>118</v>
       </c>
       <c r="B121">
-        <v>853100</v>
+        <v>863200</v>
       </c>
       <c r="C121">
-        <v>8531</v>
+        <v>8632</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -3495,10 +3496,10 @@
         <v>119</v>
       </c>
       <c r="B122">
-        <v>848700</v>
+        <v>853100</v>
       </c>
       <c r="C122">
-        <v>8487</v>
+        <v>8531</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -3506,10 +3507,10 @@
         <v>120</v>
       </c>
       <c r="B123">
-        <v>807000</v>
+        <v>848700</v>
       </c>
       <c r="C123">
-        <v>8070</v>
+        <v>8487</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -3517,10 +3518,10 @@
         <v>121</v>
       </c>
       <c r="B124">
-        <v>787500</v>
+        <v>807000</v>
       </c>
       <c r="C124">
-        <v>7875</v>
+        <v>8070</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -3528,10 +3529,10 @@
         <v>122</v>
       </c>
       <c r="B125">
-        <v>784300</v>
+        <v>787500</v>
       </c>
       <c r="C125">
-        <v>7843</v>
+        <v>7875</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -3539,10 +3540,10 @@
         <v>123</v>
       </c>
       <c r="B126">
-        <v>763600</v>
+        <v>784300</v>
       </c>
       <c r="C126">
-        <v>7636</v>
+        <v>7843</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -3550,10 +3551,10 @@
         <v>124</v>
       </c>
       <c r="B127">
-        <v>738400</v>
+        <v>763600</v>
       </c>
       <c r="C127">
-        <v>7384</v>
+        <v>7636</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -3561,10 +3562,10 @@
         <v>125</v>
       </c>
       <c r="B128">
-        <v>737900</v>
+        <v>738400</v>
       </c>
       <c r="C128">
-        <v>7379</v>
+        <v>7384</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -3572,10 +3573,10 @@
         <v>126</v>
       </c>
       <c r="B129">
-        <v>731500</v>
+        <v>737900</v>
       </c>
       <c r="C129">
-        <v>7315</v>
+        <v>7379</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -3583,10 +3584,10 @@
         <v>127</v>
       </c>
       <c r="B130">
-        <v>715100</v>
+        <v>731500</v>
       </c>
       <c r="C130">
-        <v>7151</v>
+        <v>7315</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -3594,10 +3595,10 @@
         <v>128</v>
       </c>
       <c r="B131">
-        <v>713800</v>
+        <v>715100</v>
       </c>
       <c r="C131">
-        <v>7138</v>
+        <v>7151</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -3605,10 +3606,10 @@
         <v>129</v>
       </c>
       <c r="B132">
-        <v>694600</v>
+        <v>713800</v>
       </c>
       <c r="C132">
-        <v>6946</v>
+        <v>7138</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -3616,10 +3617,10 @@
         <v>130</v>
       </c>
       <c r="B133">
-        <v>692800</v>
+        <v>694600</v>
       </c>
       <c r="C133">
-        <v>6928</v>
+        <v>6946</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -3627,10 +3628,10 @@
         <v>131</v>
       </c>
       <c r="B134">
-        <v>690700</v>
+        <v>692800</v>
       </c>
       <c r="C134">
-        <v>6907</v>
+        <v>6928</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -3638,10 +3639,10 @@
         <v>132</v>
       </c>
       <c r="B135">
-        <v>679000</v>
+        <v>690700</v>
       </c>
       <c r="C135">
-        <v>6790</v>
+        <v>6907</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -3649,10 +3650,10 @@
         <v>133</v>
       </c>
       <c r="B136">
-        <v>657400</v>
+        <v>679000</v>
       </c>
       <c r="C136">
-        <v>6574</v>
+        <v>6790</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -3660,10 +3661,10 @@
         <v>134</v>
       </c>
       <c r="B137">
-        <v>642700</v>
+        <v>657400</v>
       </c>
       <c r="C137">
-        <v>6427</v>
+        <v>6574</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -3671,10 +3672,10 @@
         <v>135</v>
       </c>
       <c r="B138">
-        <v>633700</v>
+        <v>642700</v>
       </c>
       <c r="C138">
-        <v>6337</v>
+        <v>6427</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -3693,10 +3694,10 @@
         <v>137</v>
       </c>
       <c r="B140">
-        <v>624800</v>
+        <v>633700</v>
       </c>
       <c r="C140">
-        <v>6248</v>
+        <v>6337</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -3704,10 +3705,10 @@
         <v>138</v>
       </c>
       <c r="B141">
-        <v>623600</v>
+        <v>624800</v>
       </c>
       <c r="C141">
-        <v>6236</v>
+        <v>6248</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -3715,10 +3716,10 @@
         <v>139</v>
       </c>
       <c r="B142">
-        <v>613900</v>
+        <v>623600</v>
       </c>
       <c r="C142">
-        <v>6139</v>
+        <v>6236</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -3726,10 +3727,10 @@
         <v>140</v>
       </c>
       <c r="B143">
-        <v>607200</v>
+        <v>613900</v>
       </c>
       <c r="C143">
-        <v>6072</v>
+        <v>6139</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -3737,10 +3738,10 @@
         <v>141</v>
       </c>
       <c r="B144">
-        <v>604700</v>
+        <v>607200</v>
       </c>
       <c r="C144">
-        <v>6047</v>
+        <v>6072</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -3748,10 +3749,10 @@
         <v>142</v>
       </c>
       <c r="B145">
-        <v>603500</v>
+        <v>604700</v>
       </c>
       <c r="C145">
-        <v>6035</v>
+        <v>6047</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -3759,10 +3760,10 @@
         <v>143</v>
       </c>
       <c r="B146">
-        <v>602300</v>
+        <v>603500</v>
       </c>
       <c r="C146">
-        <v>6023</v>
+        <v>6035</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -3770,10 +3771,10 @@
         <v>144</v>
       </c>
       <c r="B147">
-        <v>600000</v>
+        <v>602300</v>
       </c>
       <c r="C147">
-        <v>6000</v>
+        <v>6023</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -3781,10 +3782,10 @@
         <v>145</v>
       </c>
       <c r="B148">
-        <v>596000</v>
+        <v>600000</v>
       </c>
       <c r="C148">
-        <v>5960</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -3792,10 +3793,10 @@
         <v>146</v>
       </c>
       <c r="B149">
-        <v>586500</v>
+        <v>596000</v>
       </c>
       <c r="C149">
-        <v>5865</v>
+        <v>5960</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -3803,10 +3804,10 @@
         <v>147</v>
       </c>
       <c r="B150">
-        <v>586400</v>
+        <v>586500</v>
       </c>
       <c r="C150">
-        <v>5864</v>
+        <v>5865</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -3814,10 +3815,10 @@
         <v>148</v>
       </c>
       <c r="B151">
-        <v>581600</v>
+        <v>586400</v>
       </c>
       <c r="C151">
-        <v>5816</v>
+        <v>5864</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -3825,10 +3826,10 @@
         <v>149</v>
       </c>
       <c r="B152">
-        <v>564600</v>
+        <v>581600</v>
       </c>
       <c r="C152">
-        <v>5646</v>
+        <v>5816</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -3836,10 +3837,10 @@
         <v>150</v>
       </c>
       <c r="B153">
-        <v>556700</v>
+        <v>564600</v>
       </c>
       <c r="C153">
-        <v>5567</v>
+        <v>5646</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -3847,10 +3848,10 @@
         <v>151</v>
       </c>
       <c r="B154">
-        <v>553200</v>
+        <v>556700</v>
       </c>
       <c r="C154">
-        <v>5532</v>
+        <v>5567</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -3858,10 +3859,10 @@
         <v>152</v>
       </c>
       <c r="B155">
-        <v>550900</v>
+        <v>553200</v>
       </c>
       <c r="C155">
-        <v>5509</v>
+        <v>5532</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -3869,10 +3870,10 @@
         <v>153</v>
       </c>
       <c r="B156">
-        <v>525900</v>
+        <v>550900</v>
       </c>
       <c r="C156">
-        <v>5259</v>
+        <v>5509</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -3880,10 +3881,10 @@
         <v>154</v>
       </c>
       <c r="B157">
-        <v>508600</v>
+        <v>525900</v>
       </c>
       <c r="C157">
-        <v>5086</v>
+        <v>5259</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -3891,10 +3892,10 @@
         <v>155</v>
       </c>
       <c r="B158">
-        <v>504800</v>
+        <v>508600</v>
       </c>
       <c r="C158">
-        <v>5048</v>
+        <v>5086</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -3902,10 +3903,10 @@
         <v>156</v>
       </c>
       <c r="B159">
-        <v>501400</v>
+        <v>504800</v>
       </c>
       <c r="C159">
-        <v>5014</v>
+        <v>5048</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -3913,10 +3914,10 @@
         <v>157</v>
       </c>
       <c r="B160">
-        <v>501000</v>
+        <v>501400</v>
       </c>
       <c r="C160">
-        <v>5010</v>
+        <v>5014</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -3924,10 +3925,10 @@
         <v>158</v>
       </c>
       <c r="B161">
-        <v>500000</v>
+        <v>501000</v>
       </c>
       <c r="C161">
-        <v>5000</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -3957,10 +3958,10 @@
         <v>161</v>
       </c>
       <c r="B164">
-        <v>498000</v>
+        <v>500000</v>
       </c>
       <c r="C164">
-        <v>4980</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -3968,10 +3969,10 @@
         <v>162</v>
       </c>
       <c r="B165">
-        <v>491900</v>
+        <v>498000</v>
       </c>
       <c r="C165">
-        <v>4919</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -3979,10 +3980,10 @@
         <v>163</v>
       </c>
       <c r="B166">
-        <v>486700</v>
+        <v>491900</v>
       </c>
       <c r="C166">
-        <v>4867</v>
+        <v>4919</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -3990,10 +3991,10 @@
         <v>164</v>
       </c>
       <c r="B167">
-        <v>474300</v>
+        <v>486700</v>
       </c>
       <c r="C167">
-        <v>4743</v>
+        <v>4867</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -4001,10 +4002,10 @@
         <v>165</v>
       </c>
       <c r="B168">
-        <v>473500</v>
+        <v>474300</v>
       </c>
       <c r="C168">
-        <v>4735</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -4012,10 +4013,10 @@
         <v>166</v>
       </c>
       <c r="B169">
-        <v>473400</v>
+        <v>473500</v>
       </c>
       <c r="C169">
-        <v>4734</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -4023,10 +4024,10 @@
         <v>167</v>
       </c>
       <c r="B170">
-        <v>466200</v>
+        <v>473400</v>
       </c>
       <c r="C170">
-        <v>4662</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -4034,10 +4035,10 @@
         <v>574</v>
       </c>
       <c r="B171">
-        <v>460100</v>
+        <v>466200</v>
       </c>
       <c r="C171">
-        <v>4601</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -4045,10 +4046,10 @@
         <v>168</v>
       </c>
       <c r="B172">
-        <v>442000</v>
+        <v>460100</v>
       </c>
       <c r="C172">
-        <v>4420</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -4056,10 +4057,10 @@
         <v>169</v>
       </c>
       <c r="B173">
-        <v>441100</v>
+        <v>442000</v>
       </c>
       <c r="C173">
-        <v>4411</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -4067,10 +4068,10 @@
         <v>170</v>
       </c>
       <c r="B174">
-        <v>440300</v>
+        <v>441100</v>
       </c>
       <c r="C174">
-        <v>4403</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -4078,10 +4079,10 @@
         <v>171</v>
       </c>
       <c r="B175">
-        <v>439300</v>
+        <v>440300</v>
       </c>
       <c r="C175">
-        <v>4393</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -4089,10 +4090,10 @@
         <v>172</v>
       </c>
       <c r="B176">
-        <v>436900</v>
+        <v>439300</v>
       </c>
       <c r="C176">
-        <v>4369</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -4100,10 +4101,10 @@
         <v>173</v>
       </c>
       <c r="B177">
-        <v>435700</v>
+        <v>436900</v>
       </c>
       <c r="C177">
-        <v>4357</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -4111,10 +4112,10 @@
         <v>174</v>
       </c>
       <c r="B178">
-        <v>429700</v>
+        <v>435700</v>
       </c>
       <c r="C178">
-        <v>4297</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -4122,10 +4123,10 @@
         <v>175</v>
       </c>
       <c r="B179">
-        <v>428900</v>
+        <v>429700</v>
       </c>
       <c r="C179">
-        <v>4289</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -4133,10 +4134,10 @@
         <v>176</v>
       </c>
       <c r="B180">
-        <v>428100</v>
+        <v>428900</v>
       </c>
       <c r="C180">
-        <v>4281</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -4144,10 +4145,10 @@
         <v>177</v>
       </c>
       <c r="B181">
-        <v>424700</v>
+        <v>428100</v>
       </c>
       <c r="C181">
-        <v>4247</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -4155,10 +4156,10 @@
         <v>178</v>
       </c>
       <c r="B182">
-        <v>424300</v>
+        <v>424700</v>
       </c>
       <c r="C182">
-        <v>4243</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -4166,10 +4167,10 @@
         <v>179</v>
       </c>
       <c r="B183">
-        <v>421000</v>
+        <v>424300</v>
       </c>
       <c r="C183">
-        <v>4210</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -4177,10 +4178,10 @@
         <v>180</v>
       </c>
       <c r="B184">
-        <v>408800</v>
+        <v>421000</v>
       </c>
       <c r="C184">
-        <v>4088</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -4188,10 +4189,10 @@
         <v>181</v>
       </c>
       <c r="B185">
-        <v>407900</v>
+        <v>408800</v>
       </c>
       <c r="C185">
-        <v>4079</v>
+        <v>4088</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -4199,10 +4200,10 @@
         <v>182</v>
       </c>
       <c r="B186">
-        <v>406300</v>
+        <v>407900</v>
       </c>
       <c r="C186">
-        <v>4063</v>
+        <v>4079</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -4210,10 +4211,10 @@
         <v>183</v>
       </c>
       <c r="B187">
-        <v>405100</v>
+        <v>406300</v>
       </c>
       <c r="C187">
-        <v>4051</v>
+        <v>4063</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -4221,10 +4222,10 @@
         <v>184</v>
       </c>
       <c r="B188">
-        <v>404300</v>
+        <v>405100</v>
       </c>
       <c r="C188">
-        <v>4043</v>
+        <v>4051</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -4232,10 +4233,10 @@
         <v>185</v>
       </c>
       <c r="B189">
-        <v>400000</v>
+        <v>404300</v>
       </c>
       <c r="C189">
-        <v>4000</v>
+        <v>4043</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -4254,10 +4255,10 @@
         <v>187</v>
       </c>
       <c r="B191">
-        <v>392900</v>
+        <v>400000</v>
       </c>
       <c r="C191">
-        <v>3929</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -4265,10 +4266,10 @@
         <v>188</v>
       </c>
       <c r="B192">
-        <v>390700</v>
+        <v>392900</v>
       </c>
       <c r="C192">
-        <v>3907</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -4276,10 +4277,10 @@
         <v>189</v>
       </c>
       <c r="B193">
-        <v>387000</v>
+        <v>390700</v>
       </c>
       <c r="C193">
-        <v>3870</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -4287,10 +4288,10 @@
         <v>190</v>
       </c>
       <c r="B194">
-        <v>384900</v>
+        <v>387000</v>
       </c>
       <c r="C194">
-        <v>3849</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -4298,10 +4299,10 @@
         <v>191</v>
       </c>
       <c r="B195">
-        <v>381700</v>
+        <v>384900</v>
       </c>
       <c r="C195">
-        <v>3817</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -4309,10 +4310,10 @@
         <v>192</v>
       </c>
       <c r="B196">
-        <v>381000</v>
+        <v>381700</v>
       </c>
       <c r="C196">
-        <v>3810</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -4320,10 +4321,10 @@
         <v>193</v>
       </c>
       <c r="B197">
-        <v>380100</v>
+        <v>381000</v>
       </c>
       <c r="C197">
-        <v>3801</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -4331,10 +4332,10 @@
         <v>194</v>
       </c>
       <c r="B198">
-        <v>377200</v>
+        <v>380100</v>
       </c>
       <c r="C198">
-        <v>3772</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -4342,10 +4343,10 @@
         <v>195</v>
       </c>
       <c r="B199">
-        <v>373000</v>
+        <v>377200</v>
       </c>
       <c r="C199">
-        <v>3730</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -4353,10 +4354,10 @@
         <v>196</v>
       </c>
       <c r="B200">
-        <v>370200</v>
+        <v>373000</v>
       </c>
       <c r="C200">
-        <v>3702</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -4364,10 +4365,10 @@
         <v>197</v>
       </c>
       <c r="B201">
-        <v>368800</v>
+        <v>370200</v>
       </c>
       <c r="C201">
-        <v>3688</v>
+        <v>3702</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -4375,10 +4376,10 @@
         <v>198</v>
       </c>
       <c r="B202">
-        <v>354400</v>
+        <v>368800</v>
       </c>
       <c r="C202">
-        <v>3544</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -4386,10 +4387,10 @@
         <v>199</v>
       </c>
       <c r="B203">
-        <v>353300</v>
+        <v>354400</v>
       </c>
       <c r="C203">
-        <v>3533</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -4397,10 +4398,10 @@
         <v>200</v>
       </c>
       <c r="B204">
-        <v>351200</v>
+        <v>353300</v>
       </c>
       <c r="C204">
-        <v>3512</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -4408,10 +4409,10 @@
         <v>201</v>
       </c>
       <c r="B205">
-        <v>344800</v>
+        <v>351200</v>
       </c>
       <c r="C205">
-        <v>3448</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -4419,10 +4420,10 @@
         <v>575</v>
       </c>
       <c r="B206">
-        <v>342500</v>
+        <v>344800</v>
       </c>
       <c r="C206">
-        <v>3425</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -4430,10 +4431,10 @@
         <v>202</v>
       </c>
       <c r="B207">
-        <v>338100</v>
+        <v>342500</v>
       </c>
       <c r="C207">
-        <v>3381</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -4441,10 +4442,10 @@
         <v>203</v>
       </c>
       <c r="B208">
-        <v>327800</v>
+        <v>338100</v>
       </c>
       <c r="C208">
-        <v>3278</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -4452,10 +4453,10 @@
         <v>204</v>
       </c>
       <c r="B209">
-        <v>326900</v>
+        <v>327800</v>
       </c>
       <c r="C209">
-        <v>3269</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -4463,10 +4464,10 @@
         <v>205</v>
       </c>
       <c r="B210">
-        <v>326500</v>
+        <v>326900</v>
       </c>
       <c r="C210">
-        <v>3265</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -4474,10 +4475,10 @@
         <v>206</v>
       </c>
       <c r="B211">
-        <v>326200</v>
+        <v>326500</v>
       </c>
       <c r="C211">
-        <v>3262</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -4485,10 +4486,10 @@
         <v>207</v>
       </c>
       <c r="B212">
-        <v>326000</v>
+        <v>326200</v>
       </c>
       <c r="C212">
-        <v>3260</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -4496,10 +4497,10 @@
         <v>208</v>
       </c>
       <c r="B213">
-        <v>316100</v>
+        <v>326000</v>
       </c>
       <c r="C213">
-        <v>3161</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
@@ -4507,10 +4508,10 @@
         <v>209</v>
       </c>
       <c r="B214">
-        <v>315500</v>
+        <v>316100</v>
       </c>
       <c r="C214">
-        <v>3155</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -4518,10 +4519,10 @@
         <v>210</v>
       </c>
       <c r="B215">
-        <v>315300</v>
+        <v>315500</v>
       </c>
       <c r="C215">
-        <v>3153</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -4529,10 +4530,10 @@
         <v>211</v>
       </c>
       <c r="B216">
-        <v>314400</v>
+        <v>315300</v>
       </c>
       <c r="C216">
-        <v>3144</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -4540,10 +4541,10 @@
         <v>212</v>
       </c>
       <c r="B217">
-        <v>313000</v>
+        <v>314400</v>
       </c>
       <c r="C217">
-        <v>3130</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -4551,10 +4552,10 @@
         <v>213</v>
       </c>
       <c r="B218">
-        <v>312900</v>
+        <v>313000</v>
       </c>
       <c r="C218">
-        <v>3129</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -4562,10 +4563,10 @@
         <v>214</v>
       </c>
       <c r="B219">
-        <v>311800</v>
+        <v>312900</v>
       </c>
       <c r="C219">
-        <v>3118</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -4573,10 +4574,10 @@
         <v>215</v>
       </c>
       <c r="B220">
-        <v>308900</v>
+        <v>311800</v>
       </c>
       <c r="C220">
-        <v>3089</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -4584,10 +4585,10 @@
         <v>216</v>
       </c>
       <c r="B221">
-        <v>300400</v>
+        <v>308900</v>
       </c>
       <c r="C221">
-        <v>3004</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -4595,10 +4596,10 @@
         <v>217</v>
       </c>
       <c r="B222">
-        <v>300100</v>
+        <v>300400</v>
       </c>
       <c r="C222">
-        <v>3001</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -4606,10 +4607,10 @@
         <v>218</v>
       </c>
       <c r="B223">
-        <v>300000</v>
+        <v>300100</v>
       </c>
       <c r="C223">
-        <v>3000</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -4617,10 +4618,10 @@
         <v>219</v>
       </c>
       <c r="B224">
-        <v>298100</v>
+        <v>300000</v>
       </c>
       <c r="C224">
-        <v>2981</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -4628,10 +4629,10 @@
         <v>220</v>
       </c>
       <c r="B225">
-        <v>296100</v>
+        <v>298100</v>
       </c>
       <c r="C225">
-        <v>2961</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -4639,10 +4640,10 @@
         <v>221</v>
       </c>
       <c r="B226">
-        <v>293900</v>
+        <v>296100</v>
       </c>
       <c r="C226">
-        <v>2939</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -4650,10 +4651,10 @@
         <v>222</v>
       </c>
       <c r="B227">
-        <v>292400</v>
+        <v>293900</v>
       </c>
       <c r="C227">
-        <v>2924</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -4661,10 +4662,10 @@
         <v>223</v>
       </c>
       <c r="B228">
-        <v>289200</v>
+        <v>292400</v>
       </c>
       <c r="C228">
-        <v>2892</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -4672,10 +4673,10 @@
         <v>224</v>
       </c>
       <c r="B229">
-        <v>288300</v>
+        <v>289200</v>
       </c>
       <c r="C229">
-        <v>2883</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -4683,10 +4684,10 @@
         <v>225</v>
       </c>
       <c r="B230">
-        <v>286100</v>
+        <v>288300</v>
       </c>
       <c r="C230">
-        <v>2861</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -4694,10 +4695,10 @@
         <v>226</v>
       </c>
       <c r="B231">
-        <v>285300</v>
+        <v>286100</v>
       </c>
       <c r="C231">
-        <v>2853</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -4705,10 +4706,10 @@
         <v>227</v>
       </c>
       <c r="B232">
-        <v>283800</v>
+        <v>285300</v>
       </c>
       <c r="C232">
-        <v>2838</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -4716,10 +4717,10 @@
         <v>228</v>
       </c>
       <c r="B233">
-        <v>283600</v>
+        <v>283800</v>
       </c>
       <c r="C233">
-        <v>2836</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -4727,10 +4728,10 @@
         <v>229</v>
       </c>
       <c r="B234">
-        <v>282200</v>
+        <v>283600</v>
       </c>
       <c r="C234">
-        <v>2822</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -4738,10 +4739,10 @@
         <v>230</v>
       </c>
       <c r="B235">
-        <v>277900</v>
+        <v>282200</v>
       </c>
       <c r="C235">
-        <v>2779</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -4749,10 +4750,10 @@
         <v>231</v>
       </c>
       <c r="B236">
-        <v>277500</v>
+        <v>277900</v>
       </c>
       <c r="C236">
-        <v>2775</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -4760,10 +4761,10 @@
         <v>232</v>
       </c>
       <c r="B237">
-        <v>277200</v>
+        <v>277500</v>
       </c>
       <c r="C237">
-        <v>2772</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -4771,10 +4772,10 @@
         <v>233</v>
       </c>
       <c r="B238">
-        <v>273100</v>
+        <v>277200</v>
       </c>
       <c r="C238">
-        <v>2731</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -4782,10 +4783,10 @@
         <v>234</v>
       </c>
       <c r="B239">
-        <v>272700</v>
+        <v>273100</v>
       </c>
       <c r="C239">
-        <v>2727</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
@@ -4793,10 +4794,10 @@
         <v>235</v>
       </c>
       <c r="B240">
-        <v>271500</v>
+        <v>272700</v>
       </c>
       <c r="C240">
-        <v>2715</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -4804,10 +4805,10 @@
         <v>236</v>
       </c>
       <c r="B241">
-        <v>265500</v>
+        <v>271500</v>
       </c>
       <c r="C241">
-        <v>2655</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -4815,10 +4816,10 @@
         <v>237</v>
       </c>
       <c r="B242">
-        <v>264600</v>
+        <v>265500</v>
       </c>
       <c r="C242">
-        <v>2646</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -4826,10 +4827,10 @@
         <v>238</v>
       </c>
       <c r="B243">
-        <v>264100</v>
+        <v>264600</v>
       </c>
       <c r="C243">
-        <v>2641</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -4837,10 +4838,10 @@
         <v>239</v>
       </c>
       <c r="B244">
-        <v>264000</v>
+        <v>264100</v>
       </c>
       <c r="C244">
-        <v>2640</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -4848,10 +4849,10 @@
         <v>240</v>
       </c>
       <c r="B245">
-        <v>263900</v>
+        <v>264000</v>
       </c>
       <c r="C245">
-        <v>2639</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -4859,10 +4860,10 @@
         <v>241</v>
       </c>
       <c r="B246">
-        <v>263500</v>
+        <v>263900</v>
       </c>
       <c r="C246">
-        <v>2635</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
@@ -4870,10 +4871,10 @@
         <v>242</v>
       </c>
       <c r="B247">
-        <v>260600</v>
+        <v>263500</v>
       </c>
       <c r="C247">
-        <v>2606</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -4881,10 +4882,10 @@
         <v>243</v>
       </c>
       <c r="B248">
-        <v>260000</v>
+        <v>260600</v>
       </c>
       <c r="C248">
-        <v>2600</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -4892,10 +4893,10 @@
         <v>244</v>
       </c>
       <c r="B249">
-        <v>257300</v>
+        <v>260000</v>
       </c>
       <c r="C249">
-        <v>2573</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -4903,10 +4904,10 @@
         <v>245</v>
       </c>
       <c r="B250">
-        <v>254100</v>
+        <v>257300</v>
       </c>
       <c r="C250">
-        <v>2541</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -4914,10 +4915,10 @@
         <v>246</v>
       </c>
       <c r="B251">
-        <v>250300</v>
+        <v>254100</v>
       </c>
       <c r="C251">
-        <v>2503</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -4925,10 +4926,10 @@
         <v>247</v>
       </c>
       <c r="B252">
-        <v>250000</v>
+        <v>250300</v>
       </c>
       <c r="C252">
-        <v>2500</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
@@ -4947,10 +4948,10 @@
         <v>249</v>
       </c>
       <c r="B254">
-        <v>247900</v>
+        <v>250000</v>
       </c>
       <c r="C254">
-        <v>2479</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -4958,10 +4959,10 @@
         <v>250</v>
       </c>
       <c r="B255">
-        <v>247500</v>
+        <v>247900</v>
       </c>
       <c r="C255">
-        <v>2475</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -4969,10 +4970,10 @@
         <v>251</v>
       </c>
       <c r="B256">
-        <v>239200</v>
+        <v>247500</v>
       </c>
       <c r="C256">
-        <v>2392</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
@@ -4980,10 +4981,10 @@
         <v>252</v>
       </c>
       <c r="B257">
-        <v>238600</v>
+        <v>239200</v>
       </c>
       <c r="C257">
-        <v>2386</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -4991,10 +4992,10 @@
         <v>253</v>
       </c>
       <c r="B258">
-        <v>238300</v>
+        <v>238600</v>
       </c>
       <c r="C258">
-        <v>2383</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
@@ -5002,10 +5003,10 @@
         <v>254</v>
       </c>
       <c r="B259">
-        <v>234600</v>
+        <v>238300</v>
       </c>
       <c r="C259">
-        <v>2346</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -5013,10 +5014,10 @@
         <v>255</v>
       </c>
       <c r="B260">
-        <v>233900</v>
+        <v>234600</v>
       </c>
       <c r="C260">
-        <v>2339</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -5024,10 +5025,10 @@
         <v>256</v>
       </c>
       <c r="B261">
-        <v>233800</v>
+        <v>233900</v>
       </c>
       <c r="C261">
-        <v>2338</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
@@ -5035,10 +5036,10 @@
         <v>257</v>
       </c>
       <c r="B262">
-        <v>233500</v>
+        <v>233800</v>
       </c>
       <c r="C262">
-        <v>2335</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -5046,10 +5047,10 @@
         <v>258</v>
       </c>
       <c r="B263">
-        <v>232200</v>
+        <v>233500</v>
       </c>
       <c r="C263">
-        <v>2322</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
@@ -5057,10 +5058,10 @@
         <v>259</v>
       </c>
       <c r="B264">
-        <v>229700</v>
+        <v>232200</v>
       </c>
       <c r="C264">
-        <v>2297</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -5068,10 +5069,10 @@
         <v>260</v>
       </c>
       <c r="B265">
-        <v>229400</v>
+        <v>229700</v>
       </c>
       <c r="C265">
-        <v>2294</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -5079,10 +5080,10 @@
         <v>261</v>
       </c>
       <c r="B266">
-        <v>225900</v>
+        <v>229400</v>
       </c>
       <c r="C266">
-        <v>2259</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -5090,10 +5091,10 @@
         <v>262</v>
       </c>
       <c r="B267">
-        <v>224900</v>
+        <v>225900</v>
       </c>
       <c r="C267">
-        <v>2249</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -5101,10 +5102,10 @@
         <v>263</v>
       </c>
       <c r="B268">
-        <v>224500</v>
+        <v>224900</v>
       </c>
       <c r="C268">
-        <v>2245</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -5112,10 +5113,10 @@
         <v>264</v>
       </c>
       <c r="B269">
-        <v>224300</v>
+        <v>224500</v>
       </c>
       <c r="C269">
-        <v>2243</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -5123,10 +5124,10 @@
         <v>265</v>
       </c>
       <c r="B270">
-        <v>224000</v>
+        <v>224300</v>
       </c>
       <c r="C270">
-        <v>2240</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -5134,10 +5135,10 @@
         <v>266</v>
       </c>
       <c r="B271">
-        <v>222100</v>
+        <v>224000</v>
       </c>
       <c r="C271">
-        <v>2221</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -5145,10 +5146,10 @@
         <v>267</v>
       </c>
       <c r="B272">
-        <v>221500</v>
+        <v>222100</v>
       </c>
       <c r="C272">
-        <v>2215</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
@@ -5156,10 +5157,10 @@
         <v>268</v>
       </c>
       <c r="B273">
-        <v>220400</v>
+        <v>221500</v>
       </c>
       <c r="C273">
-        <v>2204</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -5167,10 +5168,10 @@
         <v>269</v>
       </c>
       <c r="B274">
-        <v>220000</v>
+        <v>220400</v>
       </c>
       <c r="C274">
-        <v>2200</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -5178,10 +5179,10 @@
         <v>270</v>
       </c>
       <c r="B275">
-        <v>218900</v>
+        <v>220000</v>
       </c>
       <c r="C275">
-        <v>2189</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -5189,10 +5190,10 @@
         <v>271</v>
       </c>
       <c r="B276">
-        <v>218100</v>
+        <v>218900</v>
       </c>
       <c r="C276">
-        <v>2181</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
@@ -5200,10 +5201,10 @@
         <v>272</v>
       </c>
       <c r="B277">
-        <v>216500</v>
+        <v>218100</v>
       </c>
       <c r="C277">
-        <v>2165</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -5211,10 +5212,10 @@
         <v>273</v>
       </c>
       <c r="B278">
-        <v>216400</v>
+        <v>216500</v>
       </c>
       <c r="C278">
-        <v>2164</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -5222,10 +5223,10 @@
         <v>274</v>
       </c>
       <c r="B279">
-        <v>214200</v>
+        <v>216400</v>
       </c>
       <c r="C279">
-        <v>2142</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -5233,10 +5234,10 @@
         <v>275</v>
       </c>
       <c r="B280">
-        <v>212400</v>
+        <v>214200</v>
       </c>
       <c r="C280">
-        <v>2124</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -5244,10 +5245,10 @@
         <v>276</v>
       </c>
       <c r="B281">
-        <v>209200</v>
+        <v>212400</v>
       </c>
       <c r="C281">
-        <v>2092</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -5255,10 +5256,10 @@
         <v>277</v>
       </c>
       <c r="B282">
-        <v>206900</v>
+        <v>209200</v>
       </c>
       <c r="C282">
-        <v>2069</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -5266,10 +5267,10 @@
         <v>278</v>
       </c>
       <c r="B283">
-        <v>205000</v>
+        <v>206900</v>
       </c>
       <c r="C283">
-        <v>2050</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -5277,10 +5278,10 @@
         <v>279</v>
       </c>
       <c r="B284">
-        <v>203900</v>
+        <v>205000</v>
       </c>
       <c r="C284">
-        <v>2039</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -5288,10 +5289,10 @@
         <v>280</v>
       </c>
       <c r="B285">
-        <v>203600</v>
+        <v>203900</v>
       </c>
       <c r="C285">
-        <v>2036</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -5299,10 +5300,10 @@
         <v>281</v>
       </c>
       <c r="B286">
-        <v>203400</v>
+        <v>203600</v>
       </c>
       <c r="C286">
-        <v>2034</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
@@ -5310,10 +5311,10 @@
         <v>282</v>
       </c>
       <c r="B287">
-        <v>203300</v>
+        <v>203400</v>
       </c>
       <c r="C287">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -5321,10 +5322,10 @@
         <v>283</v>
       </c>
       <c r="B288">
-        <v>202800</v>
+        <v>203300</v>
       </c>
       <c r="C288">
-        <v>2028</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -5332,10 +5333,10 @@
         <v>284</v>
       </c>
       <c r="B289">
-        <v>200900</v>
+        <v>202800</v>
       </c>
       <c r="C289">
-        <v>2009</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -5343,10 +5344,10 @@
         <v>285</v>
       </c>
       <c r="B290">
-        <v>200700</v>
+        <v>200900</v>
       </c>
       <c r="C290">
-        <v>2007</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -5354,10 +5355,10 @@
         <v>286</v>
       </c>
       <c r="B291">
-        <v>200400</v>
+        <v>200700</v>
       </c>
       <c r="C291">
-        <v>2004</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -5365,10 +5366,10 @@
         <v>287</v>
       </c>
       <c r="B292">
-        <v>200000</v>
+        <v>200400</v>
       </c>
       <c r="C292">
-        <v>2000</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
@@ -5497,10 +5498,10 @@
         <v>299</v>
       </c>
       <c r="B304">
-        <v>197800</v>
+        <v>200000</v>
       </c>
       <c r="C304">
-        <v>1978</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -5519,10 +5520,10 @@
         <v>301</v>
       </c>
       <c r="B306">
-        <v>197600</v>
+        <v>197800</v>
       </c>
       <c r="C306">
-        <v>1976</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -5530,10 +5531,10 @@
         <v>302</v>
       </c>
       <c r="B307">
-        <v>195600</v>
+        <v>197600</v>
       </c>
       <c r="C307">
-        <v>1956</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -5541,10 +5542,10 @@
         <v>303</v>
       </c>
       <c r="B308">
-        <v>193900</v>
+        <v>195600</v>
       </c>
       <c r="C308">
-        <v>1939</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
@@ -5552,10 +5553,10 @@
         <v>304</v>
       </c>
       <c r="B309">
-        <v>192000</v>
+        <v>193900</v>
       </c>
       <c r="C309">
-        <v>1920</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
@@ -5563,10 +5564,10 @@
         <v>305</v>
       </c>
       <c r="B310">
-        <v>189700</v>
+        <v>192000</v>
       </c>
       <c r="C310">
-        <v>1897</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
@@ -5574,10 +5575,10 @@
         <v>306</v>
       </c>
       <c r="B311">
-        <v>189500</v>
+        <v>189700</v>
       </c>
       <c r="C311">
-        <v>1895</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
@@ -5585,10 +5586,10 @@
         <v>307</v>
       </c>
       <c r="B312">
-        <v>187900</v>
+        <v>189500</v>
       </c>
       <c r="C312">
-        <v>1879</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
@@ -5596,10 +5597,10 @@
         <v>308</v>
       </c>
       <c r="B313">
-        <v>183600</v>
+        <v>187900</v>
       </c>
       <c r="C313">
-        <v>1836</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
@@ -5607,10 +5608,10 @@
         <v>309</v>
       </c>
       <c r="B314">
-        <v>182300</v>
+        <v>183600</v>
       </c>
       <c r="C314">
-        <v>1823</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
@@ -5618,10 +5619,10 @@
         <v>310</v>
       </c>
       <c r="B315">
-        <v>182000</v>
+        <v>182300</v>
       </c>
       <c r="C315">
-        <v>1820</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
@@ -5629,10 +5630,10 @@
         <v>311</v>
       </c>
       <c r="B316">
-        <v>180200</v>
+        <v>182000</v>
       </c>
       <c r="C316">
-        <v>1802</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
@@ -5640,10 +5641,10 @@
         <v>312</v>
       </c>
       <c r="B317">
-        <v>179900</v>
+        <v>180200</v>
       </c>
       <c r="C317">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
@@ -5662,10 +5663,10 @@
         <v>314</v>
       </c>
       <c r="B319">
-        <v>179800</v>
+        <v>179900</v>
       </c>
       <c r="C319">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
@@ -5673,10 +5674,10 @@
         <v>315</v>
       </c>
       <c r="B320">
-        <v>177500</v>
+        <v>179800</v>
       </c>
       <c r="C320">
-        <v>1775</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
@@ -5684,10 +5685,10 @@
         <v>316</v>
       </c>
       <c r="B321">
-        <v>176100</v>
+        <v>177500</v>
       </c>
       <c r="C321">
-        <v>1761</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
@@ -5695,10 +5696,10 @@
         <v>317</v>
       </c>
       <c r="B322">
-        <v>174000</v>
+        <v>176100</v>
       </c>
       <c r="C322">
-        <v>1740</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
@@ -5706,10 +5707,10 @@
         <v>318</v>
       </c>
       <c r="B323">
-        <v>173500</v>
+        <v>174000</v>
       </c>
       <c r="C323">
-        <v>1735</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
@@ -5717,10 +5718,10 @@
         <v>319</v>
       </c>
       <c r="B324">
-        <v>172900</v>
+        <v>173500</v>
       </c>
       <c r="C324">
-        <v>1729</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
@@ -5728,10 +5729,10 @@
         <v>320</v>
       </c>
       <c r="B325">
-        <v>169600</v>
+        <v>172900</v>
       </c>
       <c r="C325">
-        <v>1696</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
@@ -5739,10 +5740,10 @@
         <v>321</v>
       </c>
       <c r="B326">
-        <v>167700</v>
+        <v>169600</v>
       </c>
       <c r="C326">
-        <v>1677</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
@@ -5750,10 +5751,10 @@
         <v>322</v>
       </c>
       <c r="B327">
-        <v>165800</v>
+        <v>167700</v>
       </c>
       <c r="C327">
-        <v>1658</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
@@ -5761,10 +5762,10 @@
         <v>323</v>
       </c>
       <c r="B328">
-        <v>164900</v>
+        <v>165800</v>
       </c>
       <c r="C328">
-        <v>1649</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
@@ -5772,10 +5773,10 @@
         <v>324</v>
       </c>
       <c r="B329">
-        <v>163700</v>
+        <v>164900</v>
       </c>
       <c r="C329">
-        <v>1637</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -5783,10 +5784,10 @@
         <v>325</v>
       </c>
       <c r="B330">
-        <v>162700</v>
+        <v>163700</v>
       </c>
       <c r="C330">
-        <v>1627</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -5794,10 +5795,10 @@
         <v>326</v>
       </c>
       <c r="B331">
-        <v>162600</v>
+        <v>162700</v>
       </c>
       <c r="C331">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
@@ -5805,10 +5806,10 @@
         <v>327</v>
       </c>
       <c r="B332">
-        <v>162300</v>
+        <v>162600</v>
       </c>
       <c r="C332">
-        <v>1623</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
@@ -5816,10 +5817,10 @@
         <v>328</v>
       </c>
       <c r="B333">
-        <v>160900</v>
+        <v>162300</v>
       </c>
       <c r="C333">
-        <v>1609</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
@@ -5827,10 +5828,10 @@
         <v>329</v>
       </c>
       <c r="B334">
-        <v>160300</v>
+        <v>160900</v>
       </c>
       <c r="C334">
-        <v>1603</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
@@ -5838,10 +5839,10 @@
         <v>330</v>
       </c>
       <c r="B335">
-        <v>160100</v>
+        <v>160300</v>
       </c>
       <c r="C335">
-        <v>1601</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
@@ -5860,10 +5861,10 @@
         <v>332</v>
       </c>
       <c r="B337">
-        <v>160000</v>
+        <v>160100</v>
       </c>
       <c r="C337">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
@@ -5871,10 +5872,10 @@
         <v>333</v>
       </c>
       <c r="B338">
-        <v>157400</v>
+        <v>160000</v>
       </c>
       <c r="C338">
-        <v>1574</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
@@ -5882,10 +5883,10 @@
         <v>334</v>
       </c>
       <c r="B339">
-        <v>157100</v>
+        <v>157400</v>
       </c>
       <c r="C339">
-        <v>1571</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
@@ -5904,10 +5905,10 @@
         <v>336</v>
       </c>
       <c r="B341">
-        <v>156800</v>
+        <v>157100</v>
       </c>
       <c r="C341">
-        <v>1568</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
@@ -5915,10 +5916,10 @@
         <v>337</v>
       </c>
       <c r="B342">
-        <v>156100</v>
+        <v>156800</v>
       </c>
       <c r="C342">
-        <v>1561</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
@@ -5926,10 +5927,10 @@
         <v>338</v>
       </c>
       <c r="B343">
-        <v>155300</v>
+        <v>156100</v>
       </c>
       <c r="C343">
-        <v>1553</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
@@ -5948,10 +5949,10 @@
         <v>340</v>
       </c>
       <c r="B345">
-        <v>152500</v>
+        <v>155300</v>
       </c>
       <c r="C345">
-        <v>1525</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
@@ -5959,10 +5960,10 @@
         <v>341</v>
       </c>
       <c r="B346">
-        <v>151400</v>
+        <v>152500</v>
       </c>
       <c r="C346">
-        <v>1514</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
@@ -5970,10 +5971,10 @@
         <v>342</v>
       </c>
       <c r="B347">
-        <v>150800</v>
+        <v>151400</v>
       </c>
       <c r="C347">
-        <v>1508</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
@@ -5981,10 +5982,10 @@
         <v>343</v>
       </c>
       <c r="B348">
-        <v>150500</v>
+        <v>150800</v>
       </c>
       <c r="C348">
-        <v>1505</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
@@ -5992,10 +5993,10 @@
         <v>344</v>
       </c>
       <c r="B349">
-        <v>150000</v>
+        <v>150500</v>
       </c>
       <c r="C349">
-        <v>1500</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
@@ -6003,10 +6004,10 @@
         <v>345</v>
       </c>
       <c r="B350">
-        <v>149900</v>
+        <v>150000</v>
       </c>
       <c r="C350">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
@@ -6014,10 +6015,10 @@
         <v>346</v>
       </c>
       <c r="B351">
-        <v>149700</v>
+        <v>149900</v>
       </c>
       <c r="C351">
-        <v>1497</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
@@ -6025,10 +6026,10 @@
         <v>347</v>
       </c>
       <c r="B352">
-        <v>149600</v>
+        <v>149700</v>
       </c>
       <c r="C352">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
@@ -6036,10 +6037,10 @@
         <v>348</v>
       </c>
       <c r="B353">
-        <v>148900</v>
+        <v>149600</v>
       </c>
       <c r="C353">
-        <v>1489</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
@@ -6047,10 +6048,10 @@
         <v>349</v>
       </c>
       <c r="B354">
-        <v>148600</v>
+        <v>148900</v>
       </c>
       <c r="C354">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
@@ -6058,10 +6059,10 @@
         <v>350</v>
       </c>
       <c r="B355">
-        <v>148200</v>
+        <v>148600</v>
       </c>
       <c r="C355">
-        <v>1482</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
@@ -6069,10 +6070,10 @@
         <v>351</v>
       </c>
       <c r="B356">
-        <v>148100</v>
+        <v>148200</v>
       </c>
       <c r="C356">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
@@ -6080,10 +6081,10 @@
         <v>352</v>
       </c>
       <c r="B357">
-        <v>147000</v>
+        <v>148100</v>
       </c>
       <c r="C357">
-        <v>1470</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
@@ -6091,10 +6092,10 @@
         <v>353</v>
       </c>
       <c r="B358">
-        <v>146900</v>
+        <v>147000</v>
       </c>
       <c r="C358">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
@@ -6102,10 +6103,10 @@
         <v>354</v>
       </c>
       <c r="B359">
-        <v>146700</v>
+        <v>146900</v>
       </c>
       <c r="C359">
-        <v>1467</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
@@ -6113,10 +6114,10 @@
         <v>355</v>
       </c>
       <c r="B360">
-        <v>146500</v>
+        <v>146700</v>
       </c>
       <c r="C360">
-        <v>1465</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
@@ -6146,10 +6147,10 @@
         <v>358</v>
       </c>
       <c r="B363">
-        <v>146200</v>
+        <v>146500</v>
       </c>
       <c r="C363">
-        <v>1462</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
@@ -6157,10 +6158,10 @@
         <v>359</v>
       </c>
       <c r="B364">
-        <v>145800</v>
+        <v>146200</v>
       </c>
       <c r="C364">
-        <v>1458</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
@@ -6168,10 +6169,10 @@
         <v>360</v>
       </c>
       <c r="B365">
-        <v>145200</v>
+        <v>145800</v>
       </c>
       <c r="C365">
-        <v>1452</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
@@ -6179,10 +6180,10 @@
         <v>361</v>
       </c>
       <c r="B366">
-        <v>145100</v>
+        <v>145200</v>
       </c>
       <c r="C366">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
@@ -6190,10 +6191,10 @@
         <v>362</v>
       </c>
       <c r="B367">
-        <v>143700</v>
+        <v>145100</v>
       </c>
       <c r="C367">
-        <v>1437</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
@@ -6201,10 +6202,10 @@
         <v>363</v>
       </c>
       <c r="B368">
-        <v>143600</v>
+        <v>143700</v>
       </c>
       <c r="C368">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
@@ -6212,10 +6213,10 @@
         <v>364</v>
       </c>
       <c r="B369">
-        <v>143500</v>
+        <v>143600</v>
       </c>
       <c r="C369">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
@@ -6223,10 +6224,10 @@
         <v>365</v>
       </c>
       <c r="B370">
-        <v>143200</v>
+        <v>143500</v>
       </c>
       <c r="C370">
-        <v>1432</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
@@ -6234,10 +6235,10 @@
         <v>366</v>
       </c>
       <c r="B371">
-        <v>143100</v>
+        <v>143200</v>
       </c>
       <c r="C371">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
@@ -6245,10 +6246,10 @@
         <v>367</v>
       </c>
       <c r="B372">
-        <v>143000</v>
+        <v>143100</v>
       </c>
       <c r="C372">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
@@ -6256,10 +6257,10 @@
         <v>368</v>
       </c>
       <c r="B373">
-        <v>142800</v>
+        <v>143000</v>
       </c>
       <c r="C373">
-        <v>1428</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
@@ -6267,10 +6268,10 @@
         <v>369</v>
       </c>
       <c r="B374">
-        <v>142400</v>
+        <v>142800</v>
       </c>
       <c r="C374">
-        <v>1424</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
@@ -6278,10 +6279,10 @@
         <v>370</v>
       </c>
       <c r="B375">
-        <v>141100</v>
+        <v>142400</v>
       </c>
       <c r="C375">
-        <v>1411</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
@@ -6289,10 +6290,10 @@
         <v>371</v>
       </c>
       <c r="B376">
-        <v>139000</v>
+        <v>141100</v>
       </c>
       <c r="C376">
-        <v>1390</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
@@ -6300,10 +6301,10 @@
         <v>372</v>
       </c>
       <c r="B377">
-        <v>138500</v>
+        <v>139000</v>
       </c>
       <c r="C377">
-        <v>1385</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
@@ -6311,10 +6312,10 @@
         <v>373</v>
       </c>
       <c r="B378">
-        <v>138200</v>
+        <v>138500</v>
       </c>
       <c r="C378">
-        <v>1382</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
@@ -6322,10 +6323,10 @@
         <v>374</v>
       </c>
       <c r="B379">
-        <v>137300</v>
+        <v>138200</v>
       </c>
       <c r="C379">
-        <v>1373</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
@@ -6333,10 +6334,10 @@
         <v>375</v>
       </c>
       <c r="B380">
-        <v>136600</v>
+        <v>137300</v>
       </c>
       <c r="C380">
-        <v>1366</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
@@ -6344,10 +6345,10 @@
         <v>376</v>
       </c>
       <c r="B381">
-        <v>135300</v>
+        <v>136600</v>
       </c>
       <c r="C381">
-        <v>1353</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
@@ -6355,10 +6356,10 @@
         <v>377</v>
       </c>
       <c r="B382">
-        <v>134700</v>
+        <v>135300</v>
       </c>
       <c r="C382">
-        <v>1347</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
@@ -6377,10 +6378,10 @@
         <v>379</v>
       </c>
       <c r="B384">
-        <v>134400</v>
+        <v>134700</v>
       </c>
       <c r="C384">
-        <v>1344</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
@@ -6388,10 +6389,10 @@
         <v>380</v>
       </c>
       <c r="B385">
-        <v>133600</v>
+        <v>134400</v>
       </c>
       <c r="C385">
-        <v>1336</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
@@ -6410,10 +6411,10 @@
         <v>382</v>
       </c>
       <c r="B387">
-        <v>133100</v>
+        <v>133600</v>
       </c>
       <c r="C387">
-        <v>1331</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
@@ -6421,10 +6422,10 @@
         <v>383</v>
       </c>
       <c r="B388">
-        <v>131700</v>
+        <v>133100</v>
       </c>
       <c r="C388">
-        <v>1317</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
@@ -6432,10 +6433,10 @@
         <v>384</v>
       </c>
       <c r="B389">
-        <v>130100</v>
+        <v>131700</v>
       </c>
       <c r="C389">
-        <v>1301</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
@@ -6443,10 +6444,10 @@
         <v>385</v>
       </c>
       <c r="B390">
-        <v>129900</v>
+        <v>130100</v>
       </c>
       <c r="C390">
-        <v>1299</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
@@ -6465,10 +6466,10 @@
         <v>387</v>
       </c>
       <c r="B392">
-        <v>129700</v>
+        <v>129900</v>
       </c>
       <c r="C392">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
@@ -6487,10 +6488,10 @@
         <v>389</v>
       </c>
       <c r="B394">
-        <v>129300</v>
+        <v>129700</v>
       </c>
       <c r="C394">
-        <v>1293</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
@@ -6498,10 +6499,10 @@
         <v>390</v>
       </c>
       <c r="B395">
-        <v>129000</v>
+        <v>129300</v>
       </c>
       <c r="C395">
-        <v>1290</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
@@ -6509,10 +6510,10 @@
         <v>391</v>
       </c>
       <c r="B396">
-        <v>128500</v>
+        <v>129000</v>
       </c>
       <c r="C396">
-        <v>1285</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
@@ -6520,10 +6521,10 @@
         <v>392</v>
       </c>
       <c r="B397">
-        <v>128000</v>
+        <v>128500</v>
       </c>
       <c r="C397">
-        <v>1280</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
@@ -6531,10 +6532,10 @@
         <v>393</v>
       </c>
       <c r="B398">
-        <v>127900</v>
+        <v>128000</v>
       </c>
       <c r="C398">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
@@ -6542,10 +6543,10 @@
         <v>394</v>
       </c>
       <c r="B399">
-        <v>127200</v>
+        <v>127900</v>
       </c>
       <c r="C399">
-        <v>1272</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
@@ -6553,10 +6554,10 @@
         <v>395</v>
       </c>
       <c r="B400">
-        <v>125700</v>
+        <v>127200</v>
       </c>
       <c r="C400">
-        <v>1257</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
@@ -6564,10 +6565,10 @@
         <v>396</v>
       </c>
       <c r="B401">
-        <v>125600</v>
+        <v>125700</v>
       </c>
       <c r="C401">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
@@ -6575,10 +6576,10 @@
         <v>397</v>
       </c>
       <c r="B402">
-        <v>125500</v>
+        <v>125600</v>
       </c>
       <c r="C402">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
@@ -6597,10 +6598,10 @@
         <v>399</v>
       </c>
       <c r="B404">
-        <v>125000</v>
+        <v>125500</v>
       </c>
       <c r="C404">
-        <v>1250</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
@@ -6608,10 +6609,10 @@
         <v>400</v>
       </c>
       <c r="B405">
-        <v>123700</v>
+        <v>125000</v>
       </c>
       <c r="C405">
-        <v>1237</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
@@ -6619,10 +6620,10 @@
         <v>569</v>
       </c>
       <c r="B406">
-        <v>123300</v>
+        <v>123700</v>
       </c>
       <c r="C406">
-        <v>1233</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
@@ -6630,10 +6631,10 @@
         <v>401</v>
       </c>
       <c r="B407">
-        <v>123100</v>
+        <v>123300</v>
       </c>
       <c r="C407">
-        <v>1231</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
@@ -6641,10 +6642,10 @@
         <v>402</v>
       </c>
       <c r="B408">
-        <v>122500</v>
+        <v>123100</v>
       </c>
       <c r="C408">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
@@ -6652,10 +6653,10 @@
         <v>403</v>
       </c>
       <c r="B409">
-        <v>121500</v>
+        <v>122500</v>
       </c>
       <c r="C409">
-        <v>1215</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
@@ -6663,10 +6664,10 @@
         <v>404</v>
       </c>
       <c r="B410">
-        <v>120700</v>
+        <v>121500</v>
       </c>
       <c r="C410">
-        <v>1207</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
@@ -6674,10 +6675,10 @@
         <v>405</v>
       </c>
       <c r="B411">
-        <v>120500</v>
+        <v>120700</v>
       </c>
       <c r="C411">
-        <v>1205</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
@@ -6685,10 +6686,10 @@
         <v>406</v>
       </c>
       <c r="B412">
-        <v>119900</v>
+        <v>120500</v>
       </c>
       <c r="C412">
-        <v>1199</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
@@ -6696,10 +6697,10 @@
         <v>407</v>
       </c>
       <c r="B413">
-        <v>118700</v>
+        <v>119900</v>
       </c>
       <c r="C413">
-        <v>1187</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
@@ -6707,10 +6708,10 @@
         <v>408</v>
       </c>
       <c r="B414">
-        <v>118300</v>
+        <v>118700</v>
       </c>
       <c r="C414">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
@@ -6718,10 +6719,10 @@
         <v>409</v>
       </c>
       <c r="B415">
-        <v>117700</v>
+        <v>118300</v>
       </c>
       <c r="C415">
-        <v>1177</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
@@ -6729,10 +6730,10 @@
         <v>410</v>
       </c>
       <c r="B416">
-        <v>117200</v>
+        <v>117700</v>
       </c>
       <c r="C416">
-        <v>1172</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
@@ -6740,10 +6741,10 @@
         <v>411</v>
       </c>
       <c r="B417">
-        <v>117000</v>
+        <v>117200</v>
       </c>
       <c r="C417">
-        <v>1170</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
@@ -6751,10 +6752,10 @@
         <v>412</v>
       </c>
       <c r="B418">
-        <v>116800</v>
+        <v>117000</v>
       </c>
       <c r="C418">
-        <v>1168</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
@@ -6773,10 +6774,10 @@
         <v>414</v>
       </c>
       <c r="B420">
-        <v>116500</v>
+        <v>116800</v>
       </c>
       <c r="C420">
-        <v>1165</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
@@ -6784,10 +6785,10 @@
         <v>415</v>
       </c>
       <c r="B421">
-        <v>116400</v>
+        <v>116500</v>
       </c>
       <c r="C421">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
@@ -6795,10 +6796,10 @@
         <v>416</v>
       </c>
       <c r="B422">
-        <v>116000</v>
+        <v>116400</v>
       </c>
       <c r="C422">
-        <v>1160</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
@@ -6806,10 +6807,10 @@
         <v>417</v>
       </c>
       <c r="B423">
-        <v>115700</v>
+        <v>116000</v>
       </c>
       <c r="C423">
-        <v>1157</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
@@ -6817,10 +6818,10 @@
         <v>418</v>
       </c>
       <c r="B424">
-        <v>115600</v>
+        <v>115700</v>
       </c>
       <c r="C424">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
@@ -6828,10 +6829,10 @@
         <v>419</v>
       </c>
       <c r="B425">
-        <v>115200</v>
+        <v>115600</v>
       </c>
       <c r="C425">
-        <v>1152</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
@@ -6839,10 +6840,10 @@
         <v>420</v>
       </c>
       <c r="B426">
-        <v>115000</v>
+        <v>115200</v>
       </c>
       <c r="C426">
-        <v>1150</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
@@ -6850,10 +6851,10 @@
         <v>421</v>
       </c>
       <c r="B427">
-        <v>113400</v>
+        <v>115000</v>
       </c>
       <c r="C427">
-        <v>1134</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
@@ -6861,10 +6862,10 @@
         <v>422</v>
       </c>
       <c r="B428">
-        <v>113300</v>
+        <v>113400</v>
       </c>
       <c r="C428">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
@@ -6872,10 +6873,10 @@
         <v>423</v>
       </c>
       <c r="B429">
-        <v>112800</v>
+        <v>113300</v>
       </c>
       <c r="C429">
-        <v>1128</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
@@ -6883,10 +6884,10 @@
         <v>424</v>
       </c>
       <c r="B430">
-        <v>112600</v>
+        <v>112800</v>
       </c>
       <c r="C430">
-        <v>1126</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
@@ -6894,10 +6895,10 @@
         <v>425</v>
       </c>
       <c r="B431">
-        <v>112400</v>
+        <v>112600</v>
       </c>
       <c r="C431">
-        <v>1124</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
@@ -6905,10 +6906,10 @@
         <v>426</v>
       </c>
       <c r="B432">
-        <v>112100</v>
+        <v>112400</v>
       </c>
       <c r="C432">
-        <v>1121</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
@@ -6916,10 +6917,10 @@
         <v>427</v>
       </c>
       <c r="B433">
-        <v>111300</v>
+        <v>112100</v>
       </c>
       <c r="C433">
-        <v>1113</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
@@ -6927,10 +6928,10 @@
         <v>428</v>
       </c>
       <c r="B434">
-        <v>110400</v>
+        <v>111300</v>
       </c>
       <c r="C434">
-        <v>1104</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
@@ -6938,10 +6939,10 @@
         <v>429</v>
       </c>
       <c r="B435">
-        <v>110000</v>
+        <v>110400</v>
       </c>
       <c r="C435">
-        <v>1100</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
@@ -6960,10 +6961,10 @@
         <v>431</v>
       </c>
       <c r="B437">
-        <v>109500</v>
+        <v>110000</v>
       </c>
       <c r="C437">
-        <v>1095</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
@@ -6982,10 +6983,10 @@
         <v>433</v>
       </c>
       <c r="B439">
-        <v>109000</v>
+        <v>109500</v>
       </c>
       <c r="C439">
-        <v>1090</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
@@ -6993,10 +6994,10 @@
         <v>434</v>
       </c>
       <c r="B440">
-        <v>108700</v>
+        <v>109000</v>
       </c>
       <c r="C440">
-        <v>1087</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
@@ -7004,10 +7005,10 @@
         <v>435</v>
       </c>
       <c r="B441">
-        <v>108500</v>
+        <v>108700</v>
       </c>
       <c r="C441">
-        <v>1085</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
@@ -7015,10 +7016,10 @@
         <v>436</v>
       </c>
       <c r="B442">
-        <v>108400</v>
+        <v>108500</v>
       </c>
       <c r="C442">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
@@ -7026,10 +7027,10 @@
         <v>437</v>
       </c>
       <c r="B443">
-        <v>108300</v>
+        <v>108400</v>
       </c>
       <c r="C443">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
@@ -7037,10 +7038,10 @@
         <v>438</v>
       </c>
       <c r="B444">
-        <v>108100</v>
+        <v>108300</v>
       </c>
       <c r="C444">
-        <v>1081</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
@@ -7048,10 +7049,10 @@
         <v>439</v>
       </c>
       <c r="B445">
-        <v>108000</v>
+        <v>108100</v>
       </c>
       <c r="C445">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
@@ -7059,10 +7060,10 @@
         <v>440</v>
       </c>
       <c r="B446">
-        <v>107900</v>
+        <v>108000</v>
       </c>
       <c r="C446">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
@@ -7070,10 +7071,10 @@
         <v>441</v>
       </c>
       <c r="B447">
-        <v>107600</v>
+        <v>107900</v>
       </c>
       <c r="C447">
-        <v>1076</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
@@ -7081,10 +7082,10 @@
         <v>442</v>
       </c>
       <c r="B448">
-        <v>106600</v>
+        <v>107600</v>
       </c>
       <c r="C448">
-        <v>1066</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
@@ -7092,10 +7093,10 @@
         <v>443</v>
       </c>
       <c r="B449">
-        <v>106400</v>
+        <v>106600</v>
       </c>
       <c r="C449">
-        <v>1064</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
@@ -7103,10 +7104,10 @@
         <v>444</v>
       </c>
       <c r="B450">
-        <v>105900</v>
+        <v>106400</v>
       </c>
       <c r="C450">
-        <v>1059</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
@@ -7114,10 +7115,10 @@
         <v>445</v>
       </c>
       <c r="B451">
-        <v>105800</v>
+        <v>105900</v>
       </c>
       <c r="C451">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
@@ -7125,10 +7126,10 @@
         <v>446</v>
       </c>
       <c r="B452">
-        <v>105400</v>
+        <v>105800</v>
       </c>
       <c r="C452">
-        <v>1054</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
@@ -7136,10 +7137,10 @@
         <v>447</v>
       </c>
       <c r="B453">
-        <v>105300</v>
+        <v>105400</v>
       </c>
       <c r="C453">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
@@ -7147,10 +7148,10 @@
         <v>448</v>
       </c>
       <c r="B454">
-        <v>104900</v>
+        <v>105300</v>
       </c>
       <c r="C454">
-        <v>1049</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
@@ -7158,10 +7159,10 @@
         <v>449</v>
       </c>
       <c r="B455">
-        <v>104700</v>
+        <v>104900</v>
       </c>
       <c r="C455">
-        <v>1047</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
@@ -7169,10 +7170,10 @@
         <v>450</v>
       </c>
       <c r="B456">
-        <v>104600</v>
+        <v>104700</v>
       </c>
       <c r="C456">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
@@ -7191,10 +7192,10 @@
         <v>452</v>
       </c>
       <c r="B458">
-        <v>104500</v>
+        <v>104600</v>
       </c>
       <c r="C458">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
@@ -7202,10 +7203,10 @@
         <v>453</v>
       </c>
       <c r="B459">
-        <v>104200</v>
+        <v>104500</v>
       </c>
       <c r="C459">
-        <v>1042</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
@@ -7224,10 +7225,10 @@
         <v>455</v>
       </c>
       <c r="B461">
-        <v>103900</v>
+        <v>104200</v>
       </c>
       <c r="C461">
-        <v>1039</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
@@ -7235,10 +7236,10 @@
         <v>570</v>
       </c>
       <c r="B462">
-        <v>103800</v>
+        <v>103900</v>
       </c>
       <c r="C462">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
@@ -7246,10 +7247,10 @@
         <v>456</v>
       </c>
       <c r="B463">
-        <v>103700</v>
+        <v>103800</v>
       </c>
       <c r="C463">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
@@ -7257,10 +7258,10 @@
         <v>457</v>
       </c>
       <c r="B464">
-        <v>103600</v>
+        <v>103700</v>
       </c>
       <c r="C464">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
@@ -7279,10 +7280,10 @@
         <v>459</v>
       </c>
       <c r="B466">
-        <v>103500</v>
+        <v>103600</v>
       </c>
       <c r="C466">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
@@ -7290,10 +7291,10 @@
         <v>460</v>
       </c>
       <c r="B467">
-        <v>103300</v>
+        <v>103500</v>
       </c>
       <c r="C467">
-        <v>1033</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
@@ -7301,10 +7302,10 @@
         <v>461</v>
       </c>
       <c r="B468">
-        <v>102400</v>
+        <v>103300</v>
       </c>
       <c r="C468">
-        <v>1024</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
@@ -7312,10 +7313,10 @@
         <v>462</v>
       </c>
       <c r="B469">
-        <v>101700</v>
+        <v>102400</v>
       </c>
       <c r="C469">
-        <v>1017</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
@@ -7323,10 +7324,10 @@
         <v>463</v>
       </c>
       <c r="B470">
-        <v>101500</v>
+        <v>101700</v>
       </c>
       <c r="C470">
-        <v>1015</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
@@ -7334,10 +7335,10 @@
         <v>464</v>
       </c>
       <c r="B471">
-        <v>101400</v>
+        <v>101500</v>
       </c>
       <c r="C471">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
@@ -7356,10 +7357,10 @@
         <v>466</v>
       </c>
       <c r="B473">
-        <v>101000</v>
+        <v>101400</v>
       </c>
       <c r="C473">
-        <v>1010</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
@@ -7378,10 +7379,10 @@
         <v>468</v>
       </c>
       <c r="B475">
-        <v>100800</v>
+        <v>101000</v>
       </c>
       <c r="C475">
-        <v>1008</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
@@ -7389,10 +7390,10 @@
         <v>469</v>
       </c>
       <c r="B476">
-        <v>100600</v>
+        <v>100800</v>
       </c>
       <c r="C476">
-        <v>1006</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
@@ -7411,10 +7412,10 @@
         <v>471</v>
       </c>
       <c r="B478">
-        <v>100400</v>
+        <v>100600</v>
       </c>
       <c r="C478">
-        <v>1004</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
@@ -7433,10 +7434,10 @@
         <v>473</v>
       </c>
       <c r="B480">
-        <v>100200</v>
+        <v>100400</v>
       </c>
       <c r="C480">
-        <v>1002</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
@@ -7477,10 +7478,10 @@
         <v>477</v>
       </c>
       <c r="B484">
-        <v>100100</v>
+        <v>100200</v>
       </c>
       <c r="C484">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
@@ -7510,10 +7511,10 @@
         <v>480</v>
       </c>
       <c r="B487">
-        <v>100000</v>
+        <v>100100</v>
       </c>
       <c r="C487">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
@@ -8456,10 +8457,10 @@
         <v>564</v>
       </c>
       <c r="B573">
-        <v>99900</v>
+        <v>100000</v>
       </c>
       <c r="C573">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
@@ -8467,22 +8468,36 @@
         <v>565</v>
       </c>
       <c r="B574">
-        <v>96800</v>
+        <v>99900</v>
       </c>
       <c r="C574">
-        <v>968</v>
+        <v>999</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>566</v>
       </c>
+      <c r="B575">
+        <v>96800</v>
+      </c>
+      <c r="C575">
+        <v>968</v>
+      </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B576" s="2">
-        <f>SUM(B2:B574)</f>
-        <v>1358826900</v>
-      </c>
+      <c r="A576" t="s">
+        <v>577</v>
+      </c>
+      <c r="B576" s="3">
+        <v>101600</v>
+      </c>
+      <c r="C576">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="577" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B577" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
